--- a/data/task.xlsx
+++ b/data/task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>mobile</t>
   </si>
@@ -28,6 +28,17 @@
   </si>
   <si>
     <t>green</t>
+  </si>
+  <si>
+    <t>coupon_no</t>
+  </si>
+  <si>
+    <t>SALDJFLASFSFEK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAFAEKLJSFDAWLFFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -404,19 +415,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,21 +438,30 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1212</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>123131</v>
       </c>
       <c r="C3">
         <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
